--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355273.4239125839</v>
+        <v>-359987.3348669491</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892732</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12047827.5595082</v>
+        <v>12045467.64194652</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>34.09666786768619</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>363.4626333421854</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722012</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>2.236264487172693</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>22.60711041101142</v>
+        <v>89.01144831000722</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>251.1211959254792</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>113.6441359382036</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201225957</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968111</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>239.0241697704908</v>
       </c>
       <c r="V7" t="n">
-        <v>90.79904052475671</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>272.4263070401454</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>159.807606460819</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>19.85905444009093</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>30.441854973074</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.4921657177214</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>283.0004384157305</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.13694264448017</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31.00475743895974</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.26619254655073</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>11.65833250539616</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,7 +1819,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>54.80797832373065</v>
+        <v>87.19271635865067</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815726</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093883</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227886</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619105</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126117</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841665</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564639</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383889</v>
+        <v>24.17382596574949</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828902</v>
+        <v>52.06849973564961</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434672</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.415282497037</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308064</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086851</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435634</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158945</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431734</v>
+        <v>70.57601873167793</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459975</v>
+        <v>55.72314698196034</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643948</v>
+        <v>41.29686219380007</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931859</v>
+        <v>41.22330424667918</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908586</v>
+        <v>42.97275566644645</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147799</v>
+        <v>53.79159358883858</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805003</v>
+        <v>41.14384575541062</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922196</v>
+        <v>18.98356133658255</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367788</v>
+        <v>9.882059701038472</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792052</v>
+        <v>88.00800320656579</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407379</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678077</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546737</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754238</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221364</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988127</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325497</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799145</v>
@@ -3512,7 +3512,7 @@
         <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277547</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U38" t="n">
         <v>122.8352329541629</v>
@@ -3563,7 +3563,7 @@
         <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325497</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1807.648996664834</v>
+        <v>1418.914862540119</v>
       </c>
       <c r="C2" t="n">
-        <v>1414.473495167765</v>
+        <v>1025.739361043049</v>
       </c>
       <c r="D2" t="n">
-        <v>1414.473495167765</v>
+        <v>640.298232259717</v>
       </c>
       <c r="E2" t="n">
-        <v>1011.889970284309</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150838</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.8683757883</v>
+        <v>1102.089684652118</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737749</v>
+        <v>1542.129285544447</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>1819.409608251516</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737749</v>
+        <v>1819.409608251516</v>
       </c>
       <c r="W2" t="n">
-        <v>1807.648996664834</v>
+        <v>1819.409608251516</v>
       </c>
       <c r="X2" t="n">
-        <v>1807.648996664834</v>
+        <v>1819.409608251516</v>
       </c>
       <c r="Y2" t="n">
-        <v>1807.648996664834</v>
+        <v>1819.409608251516</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963692</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564614</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779418</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888295</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438258</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466461</v>
+        <v>921.5731989359421</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545629</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262026</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261823</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373306</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.0268946576628</v>
+        <v>227.4403290710339</v>
       </c>
       <c r="C4" t="n">
-        <v>688.0268946576628</v>
+        <v>227.4403290710339</v>
       </c>
       <c r="D4" t="n">
-        <v>688.0268946576628</v>
+        <v>227.4403290710339</v>
       </c>
       <c r="E4" t="n">
-        <v>688.0268946576628</v>
+        <v>71.88151693023639</v>
       </c>
       <c r="F4" t="n">
-        <v>530.7009598706356</v>
+        <v>71.88151693023639</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4469059700812</v>
+        <v>71.88151693023639</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315752</v>
+        <v>71.88151693023639</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865303</v>
+        <v>71.88151693023639</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>583.3302280987018</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>583.3302280987018</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>317.350882919526</v>
       </c>
       <c r="W4" t="n">
-        <v>922.1072168746797</v>
+        <v>227.4403290710339</v>
       </c>
       <c r="X4" t="n">
-        <v>688.0268946576628</v>
+        <v>227.4403290710339</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.0268946576628</v>
+        <v>227.4403290710339</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>873.552853376774</v>
+        <v>1636.674678391042</v>
       </c>
       <c r="C5" t="n">
-        <v>873.552853376774</v>
+        <v>1243.499176893972</v>
       </c>
       <c r="D5" t="n">
-        <v>873.552853376774</v>
+        <v>858.0580481106401</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>455.4745232271846</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>442.6204887975665</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>433.4981373259737</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207958</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.74336884542</v>
+        <v>1450.27717678364</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="W5" t="n">
-        <v>2059.990913234513</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="X5" t="n">
-        <v>1670.53830816757</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="Y5" t="n">
-        <v>1274.047599088171</v>
+        <v>2037.169424102439</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.192785981312</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414042</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628845</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737723</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760657</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653869</v>
+        <v>1435.175877545629</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>1435.175877545629</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545629</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262026</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2051.245294714981</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737749</v>
+        <v>1916.31461761485</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813759</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.2676624924</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863467</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996754</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467661</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222733</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="C7" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="D7" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="E7" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="F7" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="G7" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>740.13418548044</v>
       </c>
       <c r="U7" t="n">
-        <v>423.7848383464424</v>
+        <v>498.6956301567119</v>
       </c>
       <c r="V7" t="n">
-        <v>332.0686357961831</v>
+        <v>498.6956301567119</v>
       </c>
       <c r="W7" t="n">
-        <v>332.0686357961831</v>
+        <v>498.6956301567119</v>
       </c>
       <c r="X7" t="n">
-        <v>332.0686357961831</v>
+        <v>264.615307939695</v>
       </c>
       <c r="Y7" t="n">
-        <v>332.0686357961831</v>
+        <v>41.50324675633834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1803.731934657886</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.731934657886</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1392.575851912381</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>2204.226680369282</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1443.506853769802</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.3238676264566</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="C10" t="n">
-        <v>386.3238676264566</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="D10" t="n">
-        <v>386.3238676264566</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E10" t="n">
-        <v>386.3238676264566</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F10" t="n">
-        <v>386.3238676264566</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>386.3238676264566</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.3238676264566</v>
+        <v>683.9303219684286</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1370.477011451001</v>
+        <v>1318.972249543667</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.477011451001</v>
+        <v>997.5930231927921</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.832157813862</v>
+        <v>711.7339944900339</v>
       </c>
       <c r="E11" t="n">
-        <v>726.0449080766007</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527723</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527723</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838006</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="X11" t="n">
-        <v>1940.113026917257</v>
+        <v>1972.365154042075</v>
       </c>
       <c r="Y11" t="n">
-        <v>1615.418592984052</v>
+        <v>1647.67072010887</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>318.2838994630214</v>
+        <v>429.5208757722357</v>
       </c>
       <c r="C13" t="n">
-        <v>219.8750566752044</v>
+        <v>331.1120329844188</v>
       </c>
       <c r="D13" t="n">
-        <v>219.8750566752044</v>
+        <v>247.2751950331274</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752044</v>
+        <v>247.2751950331274</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752044</v>
+        <v>161.7455353922942</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>65.28775663793363</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1465.414705007477</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1334.39489633622</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1170.472119650648</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U13" t="n">
-        <v>956.8296030387431</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V13" t="n">
-        <v>956.8296030387431</v>
+        <v>905.7825322771344</v>
       </c>
       <c r="W13" t="n">
-        <v>745.2954761161146</v>
+        <v>694.2484053545058</v>
       </c>
       <c r="X13" t="n">
-        <v>583.0114290452916</v>
+        <v>694.2484053545058</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.6956430081288</v>
+        <v>542.9326193173431</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1635.894626669077</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1314.515400318201</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="E14" t="n">
         <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
         <v>314.405902991431</v>
@@ -5288,7 +5288,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3067.303665461785</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3067.303665461785</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2883.347211042578</v>
+        <v>2847.758684558838</v>
       </c>
       <c r="V14" t="n">
-        <v>2613.03667689229</v>
+        <v>2577.44815040855</v>
       </c>
       <c r="W14" t="n">
-        <v>2613.03667689229</v>
+        <v>2278.245390523031</v>
       </c>
       <c r="X14" t="n">
-        <v>2295.380346971541</v>
+        <v>1960.589060602282</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.380346971541</v>
+        <v>1635.894626669077</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N15" t="n">
-        <v>1493.196009291336</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.6570050786607</v>
+        <v>290.936391764447</v>
       </c>
       <c r="C16" t="n">
-        <v>315.2481622908438</v>
+        <v>290.936391764447</v>
       </c>
       <c r="D16" t="n">
-        <v>231.4113243395524</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="E16" t="n">
-        <v>147.6487873449487</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457731</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127911</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901626</v>
+        <v>530.3256286689336</v>
       </c>
       <c r="X16" t="n">
-        <v>527.0687486237681</v>
+        <v>442.2521778016097</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.0687486237681</v>
+        <v>290.936391764447</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,40 +6157,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.619390679759</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214671</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6230,13 +6230,13 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
         <v>2893.292664647883</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6315,13 +6315,13 @@
         <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
-        <v>1532.448062118649</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>2048.96834470963</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,10 +6361,10 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6382,52 +6382,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662623</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,10 +6488,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>181.7318166062156</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>501.470962668442</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>985.0370485667553</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>985.0370485667553</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.815019777314</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878066</v>
@@ -6613,7 +6613,7 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918587</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303043</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401236</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993063</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108097</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835457</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234499</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>255.2650543744508</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>725.8995309768959</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741589</v>
+        <v>1219.219822695425</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.91105178617</v>
+        <v>1876.872843314989</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423632</v>
+        <v>2404.684126952451</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.76193631596</v>
+        <v>2844.723727844779</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174552</v>
+        <v>3192.911219976301</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117249</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117249</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939825</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380768</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696892</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281936</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131749</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946331</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748458</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348362</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.299623917968</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234499</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234499</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>387.2942816645714</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>870.8603675628847</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1463.749019270602</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270602</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861583</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929691</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918666</v>
+        <v>309.3853606404838</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245242</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612313</v>
+        <v>226.0316571652523</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597508</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407219</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431916</v>
+        <v>86.73045008374152</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234499</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234499</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>389.5437325908899</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194702</v>
+        <v>575.8353109291539</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770952</v>
+        <v>870.6770655353464</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1033.381832577054</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1264.910118928616</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.98443587365</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387753</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451828</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501588</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250141</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395518</v>
+        <v>835.725728327364</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400672</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045759</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027448</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6968,19 +6968,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879416</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296496</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803429</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,22 +7196,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840155</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885588</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218799</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F40" t="n">
         <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072654</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229811</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446686</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184684</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567324</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879416</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296496</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.202162476279</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U40" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W40" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7397,13 +7397,13 @@
         <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879441</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7655,10 +7655,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,13 +7667,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>67.6987703123003</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446707</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>213.3952764296641</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6290838376806</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837491</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211829</v>
+        <v>485.881068693854</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431182</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,10 +8222,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>317.8907133738732</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>565.0998139362517</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999688</v>
+        <v>574.4602701392347</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886038</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>577.0069902189997</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>136.3731801151487</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,7 +9486,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,7 +9723,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>577.006990218999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9963,16 +9963,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215578</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>196.5449382119059</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>191.9060307259246</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167031</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,22 +10665,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.9193201418296</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>27.50796668503654</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>79.70851048890884</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.57890964005716</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>55.5039145670773</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>170.4585573696193</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>105.8532282763842</v>
+        <v>73.46849024146411</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1053339.00358251</v>
+        <v>1052135.908354989</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1053339.00358251</v>
+        <v>1052135.908354989</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>944027.7031452699</v>
+        <v>944027.7031452698</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>944027.7031452698</v>
+        <v>944027.7031452699</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>252465.0493306996</v>
+      </c>
+      <c r="C2" t="n">
         <v>252465.0493306995</v>
-      </c>
-      <c r="C2" t="n">
-        <v>252465.0493306996</v>
       </c>
       <c r="D2" t="n">
         <v>252465.0493306995</v>
@@ -26323,28 +26323,28 @@
         <v>223102.6327941606</v>
       </c>
       <c r="F2" t="n">
-        <v>223102.6327941605</v>
+        <v>223102.6327941606</v>
       </c>
       <c r="G2" t="n">
         <v>252465.0493306994</v>
       </c>
       <c r="H2" t="n">
-        <v>252465.0493306997</v>
+        <v>252465.0493306991</v>
       </c>
       <c r="I2" t="n">
+        <v>252465.049330699</v>
+      </c>
+      <c r="J2" t="n">
+        <v>252465.0493306995</v>
+      </c>
+      <c r="K2" t="n">
+        <v>252465.0493306995</v>
+      </c>
+      <c r="L2" t="n">
+        <v>252465.0493306995</v>
+      </c>
+      <c r="M2" t="n">
         <v>252465.0493306994</v>
-      </c>
-      <c r="J2" t="n">
-        <v>252465.0493306994</v>
-      </c>
-      <c r="K2" t="n">
-        <v>252465.0493306996</v>
-      </c>
-      <c r="L2" t="n">
-        <v>252465.0493306997</v>
-      </c>
-      <c r="M2" t="n">
-        <v>252465.0493306998</v>
       </c>
       <c r="N2" t="n">
         <v>252465.0493306997</v>
@@ -26353,7 +26353,7 @@
         <v>252465.0493306991</v>
       </c>
       <c r="P2" t="n">
-        <v>252465.0493306991</v>
+        <v>252465.049330699</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340547</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.4295340139</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728557</v>
+        <v>62456.24177539705</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081124</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277111</v>
+        <v>27767.69404277112</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327258</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327259</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26436,7 +26436,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,7 +26454,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="P4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481714</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481714</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315418</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-207109.1095851931</v>
+        <v>-202757.663770898</v>
       </c>
       <c r="C6" t="n">
-        <v>-24904.16129333711</v>
+        <v>-28899.00673684345</v>
       </c>
       <c r="D6" t="n">
-        <v>-32072.48231500867</v>
+        <v>-39808.77153840073</v>
       </c>
       <c r="E6" t="n">
-        <v>-67907.61587208898</v>
+        <v>-68117.34741877861</v>
       </c>
       <c r="F6" t="n">
-        <v>44214.94560195545</v>
+        <v>44005.21405526599</v>
       </c>
       <c r="G6" t="n">
-        <v>-26590.629505449</v>
+        <v>-26590.62950544897</v>
       </c>
       <c r="H6" t="n">
-        <v>20834.69603123327</v>
+        <v>20834.69603123271</v>
       </c>
       <c r="I6" t="n">
-        <v>20834.69603123295</v>
+        <v>20834.69603123263</v>
       </c>
       <c r="J6" t="n">
-        <v>-192207.2215660526</v>
+        <v>-185690.936411479</v>
       </c>
       <c r="K6" t="n">
-        <v>14594.92762845018</v>
+        <v>14594.92762845012</v>
       </c>
       <c r="L6" t="n">
-        <v>-40587.6613061709</v>
+        <v>-44636.49851664358</v>
       </c>
       <c r="M6" t="n">
-        <v>-21366.1334283898</v>
+        <v>-22417.82843957827</v>
       </c>
       <c r="N6" t="n">
-        <v>20834.69603123323</v>
+        <v>20834.6960312333</v>
       </c>
       <c r="O6" t="n">
-        <v>-6932.99801153841</v>
+        <v>-6932.998011538373</v>
       </c>
       <c r="P6" t="n">
-        <v>20834.69603123268</v>
+        <v>20834.69603123257</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,19 +26713,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293124</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660696</v>
+        <v>78.07030221924632</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551355</v>
+        <v>17.58004954287408</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346389</v>
+        <v>34.7096175534639</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506583</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971635</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042807</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506583</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>364.4610217669347</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27433,13 +27433,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>3.826411339209983</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758605</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>185.1777423863158</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>257.8899876371227</v>
+        <v>191.4856497381269</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>69.72102400369508</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>253.6449087431918</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626953</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,25 +27822,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>43.56023407002726</v>
       </c>
       <c r="V7" t="n">
-        <v>172.5205112026273</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>124.0634912141375</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>232.7181955277859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>146.712458921458</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>190.4390855984491</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.01250026485194</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,20 +28980,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>35.71049010668767</v>
-      </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29086,7 +29086,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29302,16 +29302,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>30.2722376590126</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
@@ -29466,7 +29466,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
         <v>93.99127447431646</v>
@@ -29533,13 +29533,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683159366</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="L32" t="n">
-        <v>86.272911965665</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>76.79385455030635</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254122</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,43 +30141,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>28.01250026485211</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5.636002634527898</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733193</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668693</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.01250026485148</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,43 +30615,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.636002634530541</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,40 +30852,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668914</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>35.71049010668816</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>64.27678509187996</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0652464135842</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701622</v>
+        <v>400.5089558396874</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,10 +34942,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>168.1656617761459</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>415.9813225984677</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200684963</v>
+        <v>482.0731480899228</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>484.6198681696878</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>51.00106726098203</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.46926427500442</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,7 +36206,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>220.7505244816465</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,7 +36443,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>484.6198681696871</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,16 +36598,16 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272236</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36683,16 +36683,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>109.4615733925913</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907918</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>109.4615733925913</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576826</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.38836020449</v>
       </c>
       <c r="L32" t="n">
-        <v>584.576236933876</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238018</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273764</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>242.5793493723263</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029875</v>
+        <v>297.8199541476691</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106685</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828628</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516621</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094867</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.63600263452786</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500396</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094893</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634530064</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
